--- a/miyouStudentInfo/static/download/组织成员信息表 - 模板.xlsx
+++ b/miyouStudentInfo/static/download/组织成员信息表 - 模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事实上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +74,17 @@
   </si>
   <si>
     <t>test222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短号</t>
+    <rPh sb="0" eb="1">
+      <t>hao'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,20 +411,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="3" width="35.875" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="2" max="4" width="35.875" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,35 +432,41 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>18868944520</v>
+      </c>
+      <c r="C2">
+        <v>666</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2">
-        <v>18855663366</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
     </row>

--- a/miyouStudentInfo/static/download/组织成员信息表 - 模板.xlsx
+++ b/miyouStudentInfo/static/download/组织成员信息表 - 模板.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juphoon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\qq文档\微信\WeChat Files\yyyan-522\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="465" windowWidth="28800" windowHeight="16185" tabRatio="500"/>
+    <workbookView xWindow="11895" yWindow="465" windowWidth="28800" windowHeight="16185" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,64 +27,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>姓名</t>
-    <rPh sb="0" eb="1">
-      <t>xing'mig</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码</t>
-    <rPh sb="0" eb="1">
-      <t>hao'ma</t>
-    </rPh>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>组织ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>组织名称</t>
-    <rPh sb="0" eb="1">
-      <t>zu'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming'cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织类型（1学校 2公司）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短号</t>
-    <rPh sb="0" eb="1">
-      <t>hao'ma</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短号号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、除用户ID及用户性别外，其他字段信息为必填项；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、组织结构可参考：公司--分公司--部门--科室，或学校--学院--系别--班级等；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、组织类别分为：企业/公司、学校、镇街。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学--管理学院--工商管理---16级工商管理1班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨钰茵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID(选填)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户性别(选填)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,16 +129,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,12 +181,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -411,63 +496,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="35.875" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="1" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="4" max="10" width="12.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A2" s="5">
+        <v>120000001</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>101</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5">
+        <v>13710099747</v>
+      </c>
+      <c r="I2" s="5">
+        <v>659747</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>18868944520</v>
-      </c>
-      <c r="C2">
-        <v>666</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/miyouStudentInfo/static/download/组织成员信息表 - 模板.xlsx
+++ b/miyouStudentInfo/static/download/组织成员信息表 - 模板.xlsx
@@ -1,146 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\qq文档\微信\WeChat Files\yyyan-522\Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="465" windowWidth="28800" windowHeight="16185" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>组织ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织结构（选填）</t>
   </si>
   <si>
     <t>组织类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+  </si>
+  <si>
+    <t>用户ID(选填)</t>
+  </si>
+  <si>
+    <t>用户性别(选填)</t>
   </si>
   <si>
     <t>电话号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>短号号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>归属城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学</t>
+  </si>
+  <si>
+    <t>中山大学-管理学院-工商管理-16级工商管理1班</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>杨钰茵</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>广州</t>
   </si>
   <si>
     <t>注：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、除用户ID及用户性别外，其他字段信息为必填项；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、除组织结构，用户ID及用户性别外，其他字段信息为必填项；</t>
   </si>
   <si>
     <t>2、组织结构可参考：公司--分公司--部门--科室，或学校--学院--系别--班级等；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3、组织类别分为：企业/公司、学校、镇街。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山大学--管理学院--工商管理---16级工商管理1班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨钰茵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID(选填)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户性别(选填)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -148,18 +117,161 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +284,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -183,51 +481,337 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -276,7 +860,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -311,7 +895,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -485,118 +1069,113 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11" style="1"/>
+    <col min="1" max="2" width="12.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="3" customWidth="1"/>
+    <col min="4" max="10" width="12.25" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:10">
+      <c r="A2" s="6">
+        <v>120000001</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6">
+        <v>101</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6">
+        <v>13710099747</v>
+      </c>
+      <c r="I2" s="6">
+        <v>659747</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A2" s="5">
-        <v>120000001</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5">
-        <v>101</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5">
-        <v>13710099747</v>
-      </c>
-      <c r="I2" s="5">
-        <v>659747</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/miyouStudentInfo/static/download/组织成员信息表 - 模板.xlsx
+++ b/miyouStudentInfo/static/download/组织成员信息表 - 模板.xlsx
@@ -70,7 +70,7 @@
     <t>1、除组织结构，用户ID及用户性别外，其他字段信息为必填项；</t>
   </si>
   <si>
-    <t>2、组织结构可参考：公司--分公司--部门--科室，或学校--学院--系别--班级等；</t>
+    <t>2、组织结构可参考：公司-分公司-部门-科室，或学校-学院-系别-班级等；</t>
   </si>
   <si>
     <t>3、组织类别分为：企业/公司、学校、镇街。</t>
@@ -82,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -121,22 +121,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,6 +165,44 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -180,24 +218,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,67 +266,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,13 +286,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +400,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,96 +442,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,49 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,17 +495,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +511,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,11 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,26 +586,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,10 +598,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +610,133 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="6"/>

--- a/miyouStudentInfo/static/download/组织成员信息表 - 模板.xlsx
+++ b/miyouStudentInfo/static/download/组织成员信息表 - 模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>组织ID</t>
   </si>
@@ -62,18 +62,6 @@
   </si>
   <si>
     <t>广州</t>
-  </si>
-  <si>
-    <t>注：</t>
-  </si>
-  <si>
-    <t>1、除组织结构，用户ID及用户性别外，其他字段信息为必填项；</t>
-  </si>
-  <si>
-    <t>2、组织结构可参考：公司-分公司-部门-科室，或学校-学院-系别-班级等；</t>
-  </si>
-  <si>
-    <t>3、组织类别分为：企业/公司、学校、镇街。</t>
   </si>
 </sst>
 </file>
@@ -82,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -134,9 +122,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,16 +152,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,26 +182,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,8 +207,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,37 +246,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,19 +280,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,151 +430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,11 +485,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +497,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,15 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -554,32 +561,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,8 +575,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,10 +586,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,42 +601,42 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,43 +646,61 @@
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,40 +709,22 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1066,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1153,26 +1141,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="4" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="5" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="6" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="7" s="2" customFormat="1" ht="18.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
